--- a/data/poblacion_datos.xlsx
+++ b/data/poblacion_datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Semestre 6\Semestre 6 Inteligencia de Negocios\ISIS-3301-P2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\BI\Proyecto2\ISIS-3301-P2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1DE712-0AFF-44D0-81FC-5F730338E2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22920" windowHeight="9855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poblacion_edad" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="23">
   <si>
     <t>Hombres</t>
   </si>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>245286</v>
+        <v>274682</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -1406,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>248086</v>
+        <v>263217</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -1420,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>353204</v>
+        <v>371000</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -1434,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>471137</v>
+        <v>514436</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -1448,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>656599</v>
+        <v>725610</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -1462,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>877086</v>
+        <v>921116</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -1476,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>1038581</v>
+        <v>1128151</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -1490,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>1305846</v>
+        <v>1356006</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -1504,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>1415681</v>
+        <v>1410300</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -1518,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>1452630</v>
+        <v>1510993</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -1532,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>1674406</v>
+        <v>1740656</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -1546,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>1868973</v>
+        <v>1914011</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -1560,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>2036172</v>
+        <v>2096376</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -1574,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>2217321</v>
+        <v>2212383</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -1588,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>2198532</v>
+        <v>2173290</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -1602,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="C85">
-        <v>2140305</v>
+        <v>2075863</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -1616,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>1959813</v>
+        <v>1886925</v>
       </c>
       <c r="D86" t="s">
         <v>0</v>
@@ -1624,13 +1625,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
       </c>
       <c r="C87">
-        <v>348420</v>
+        <v>388783</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -1638,13 +1639,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>319300</v>
+        <v>338095</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
@@ -1652,13 +1653,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89">
-        <v>432278</v>
+        <v>456536</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -1666,13 +1667,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90">
-        <v>560811</v>
+        <v>608291</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -1680,13 +1681,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>750200</v>
+        <v>831660</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
@@ -1694,13 +1695,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92">
-        <v>998158</v>
+        <v>1062742</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
@@ -1708,13 +1709,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
       <c r="C93">
-        <v>1192980</v>
+        <v>1282204</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -1722,13 +1723,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94">
-        <v>1442674</v>
+        <v>1498340</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -1736,13 +1737,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95">
-        <v>1567155</v>
+        <v>1578584</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -1750,13 +1751,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96">
-        <v>1623619</v>
+        <v>1668788</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -1764,13 +1765,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97">
-        <v>1777630</v>
+        <v>1818913</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -1778,13 +1779,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
       </c>
       <c r="C98">
-        <v>1891551</v>
+        <v>1916895</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -1792,13 +1793,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
       </c>
       <c r="C99">
-        <v>1990755</v>
+        <v>2042649</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -1806,13 +1807,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100">
-        <v>2134568</v>
+        <v>2131340</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -1820,13 +1821,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101">
-        <v>2109765</v>
+        <v>2085058</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -1834,13 +1835,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
       </c>
       <c r="C102">
-        <v>2048956</v>
+        <v>1986890</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -1848,13 +1849,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
       <c r="C103">
-        <v>1874191</v>
+        <v>1804938</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -1862,13 +1863,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
       </c>
       <c r="C104">
-        <v>245286</v>
+        <v>287770</v>
       </c>
       <c r="D104" t="s">
         <v>0</v>
@@ -1876,13 +1877,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>248086</v>
+        <v>271257</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
@@ -1890,13 +1891,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>353204</v>
+        <v>381435</v>
       </c>
       <c r="D106" t="s">
         <v>0</v>
@@ -1904,13 +1905,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107">
-        <v>471137</v>
+        <v>540580</v>
       </c>
       <c r="D107" t="s">
         <v>0</v>
@@ -1918,13 +1919,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108">
-        <v>656599</v>
+        <v>761987</v>
       </c>
       <c r="D108" t="s">
         <v>0</v>
@@ -1932,13 +1933,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109">
-        <v>877086</v>
+        <v>638913</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
@@ -1946,13 +1947,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
       </c>
       <c r="C110">
-        <v>1038581</v>
+        <v>1180412</v>
       </c>
       <c r="D110" t="s">
         <v>0</v>
@@ -1960,13 +1961,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111">
-        <v>1305846</v>
+        <v>1368914</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
@@ -1974,13 +1975,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112">
-        <v>1415681</v>
+        <v>1403942</v>
       </c>
       <c r="D112" t="s">
         <v>0</v>
@@ -1988,13 +1989,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113">
-        <v>1452630</v>
+        <v>1552088</v>
       </c>
       <c r="D113" t="s">
         <v>0</v>
@@ -2002,13 +2003,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
       <c r="C114">
-        <v>1674406</v>
+        <v>1767513</v>
       </c>
       <c r="D114" t="s">
         <v>0</v>
@@ -2016,13 +2017,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115">
-        <v>1868973</v>
+        <v>1932602</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
@@ -2030,13 +2031,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
       </c>
       <c r="C116">
-        <v>2036172</v>
+        <v>2127241</v>
       </c>
       <c r="D116" t="s">
         <v>0</v>
@@ -2044,13 +2045,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117">
-        <v>2217321</v>
+        <v>2196986</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
@@ -2058,13 +2059,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118">
-        <v>2198532</v>
+        <v>2160927</v>
       </c>
       <c r="D118" t="s">
         <v>0</v>
@@ -2072,13 +2073,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
       </c>
       <c r="C119">
-        <v>2140305</v>
+        <v>2031258</v>
       </c>
       <c r="D119" t="s">
         <v>0</v>
@@ -2086,13 +2087,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
       <c r="C120">
-        <v>1959813</v>
+        <v>1876205</v>
       </c>
       <c r="D120" t="s">
         <v>0</v>
@@ -2100,13 +2101,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
       </c>
       <c r="C121">
-        <v>348420</v>
+        <v>408010</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
@@ -2114,13 +2115,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122">
-        <v>319300</v>
+        <v>348075</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -2128,13 +2129,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>432278</v>
+        <v>470857</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -2142,13 +2143,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124">
-        <v>560811</v>
+        <v>636448</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -2156,13 +2157,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>750200</v>
+        <v>875846</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -2170,13 +2171,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126">
-        <v>998158</v>
+        <v>1090649</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -2184,13 +2185,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
       <c r="C127">
-        <v>1192980</v>
+        <v>1330750</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -2198,13 +2199,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128">
-        <v>1442674</v>
+        <v>1516425</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -2212,13 +2213,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129">
-        <v>1567155</v>
+        <v>1580500</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -2226,13 +2227,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130">
-        <v>1623619</v>
+        <v>1697761</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -2240,13 +2241,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="C131">
-        <v>1777630</v>
+        <v>1834188</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -2254,13 +2255,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
       </c>
       <c r="C132">
-        <v>1891551</v>
+        <v>1927499</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -2268,13 +2269,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
       </c>
       <c r="C133">
-        <v>1990755</v>
+        <v>2070605</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -2282,13 +2283,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134">
-        <v>2134568</v>
+        <v>2116636</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -2296,13 +2297,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135">
-        <v>2109765</v>
+        <v>2072332</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -2310,13 +2311,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
       </c>
       <c r="C136">
-        <v>2048956</v>
+        <v>1944193</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -2324,13 +2325,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B137" t="s">
         <v>18</v>
       </c>
       <c r="C137">
-        <v>1874191</v>
+        <v>1794688</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -2338,13 +2339,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
       </c>
       <c r="C138">
-        <v>245286</v>
+        <v>300299</v>
       </c>
       <c r="D138" t="s">
         <v>0</v>
@@ -2352,13 +2353,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>248086</v>
+        <v>280101</v>
       </c>
       <c r="D139" t="s">
         <v>0</v>
@@ -2366,13 +2367,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
       <c r="C140">
-        <v>353204</v>
+        <v>395337</v>
       </c>
       <c r="D140" t="s">
         <v>0</v>
@@ -2380,13 +2381,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141">
-        <v>471137</v>
+        <v>570135</v>
       </c>
       <c r="D141" t="s">
         <v>0</v>
@@ -2394,13 +2395,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>656599</v>
+        <v>797014</v>
       </c>
       <c r="D142" t="s">
         <v>0</v>
@@ -2408,13 +2409,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143">
-        <v>877086</v>
+        <v>963617</v>
       </c>
       <c r="D143" t="s">
         <v>0</v>
@@ -2422,13 +2423,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B144" t="s">
         <v>9</v>
       </c>
       <c r="C144">
-        <v>1038581</v>
+        <v>1229699</v>
       </c>
       <c r="D144" t="s">
         <v>0</v>
@@ -2436,13 +2437,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="C145">
-        <v>1305846</v>
+        <v>1378298</v>
       </c>
       <c r="D145" t="s">
         <v>0</v>
@@ -2450,13 +2451,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
       <c r="C146">
-        <v>1415681</v>
+        <v>1406152</v>
       </c>
       <c r="D146" t="s">
         <v>0</v>
@@ -2464,13 +2465,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147">
-        <v>1452630</v>
+        <v>1595199</v>
       </c>
       <c r="D147" t="s">
         <v>0</v>
@@ -2478,13 +2479,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148">
-        <v>1674406</v>
+        <v>1794722</v>
       </c>
       <c r="D148" t="s">
         <v>0</v>
@@ -2492,13 +2493,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
       </c>
       <c r="C149">
-        <v>1868973</v>
+        <v>1955567</v>
       </c>
       <c r="D149" t="s">
         <v>0</v>
@@ -2506,13 +2507,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B150" t="s">
         <v>14</v>
       </c>
       <c r="C150">
-        <v>2036172</v>
+        <v>2154634</v>
       </c>
       <c r="D150" t="s">
         <v>0</v>
@@ -2520,13 +2521,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
       <c r="C151">
-        <v>2217321</v>
+        <v>2183945</v>
       </c>
       <c r="D151" t="s">
         <v>0</v>
@@ -2534,13 +2535,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152">
-        <v>2198532</v>
+        <v>2147123</v>
       </c>
       <c r="D152" t="s">
         <v>0</v>
@@ -2548,13 +2549,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>2140305</v>
+        <v>1986836</v>
       </c>
       <c r="D153" t="s">
         <v>0</v>
@@ -2562,13 +2563,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B154" t="s">
         <v>18</v>
       </c>
       <c r="C154">
-        <v>1959813</v>
+        <v>1874356</v>
       </c>
       <c r="D154" t="s">
         <v>0</v>
@@ -2576,13 +2577,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
       </c>
       <c r="C155">
-        <v>348420</v>
+        <v>427307</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -2590,13 +2591,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156">
-        <v>319300</v>
+        <v>359383</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -2604,13 +2605,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
       <c r="C157">
-        <v>432278</v>
+        <v>488447</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -2618,13 +2619,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158">
-        <v>560811</v>
+        <v>669062</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -2632,13 +2633,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159">
-        <v>750200</v>
+        <v>919433</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -2646,13 +2647,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160">
-        <v>998158</v>
+        <v>1123131</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -2660,13 +2661,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
       </c>
       <c r="C161">
-        <v>1192980</v>
+        <v>1377095</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -2674,13 +2675,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>1442674</v>
+        <v>1531953</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -2688,13 +2689,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
       </c>
       <c r="C163">
-        <v>1567155</v>
+        <v>1587843</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -2702,13 +2703,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
       </c>
       <c r="C164">
-        <v>1623619</v>
+        <v>1727752</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -2716,13 +2717,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165">
-        <v>1777630</v>
+        <v>1850107</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -2730,13 +2731,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
       </c>
       <c r="C166">
-        <v>1891551</v>
+        <v>1943303</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -2744,13 +2745,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167">
-        <v>1990755</v>
+        <v>2095136</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -2758,13 +2759,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
       </c>
       <c r="C168">
-        <v>2134568</v>
+        <v>2102981</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -2772,13 +2773,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169">
-        <v>2109765</v>
+        <v>2057844</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -2786,13 +2787,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B170" t="s">
         <v>17</v>
       </c>
       <c r="C170">
-        <v>2048956</v>
+        <v>1901414</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -2800,15 +2801,1443 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
       </c>
       <c r="C171">
-        <v>1874191</v>
+        <v>1792481</v>
       </c>
       <c r="D171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2015</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>312663</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2015</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>290066</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2015</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>413871</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2015</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>603242</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2015</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>829605</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2015</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>999708</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2015</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>1271889</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2015</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>1386636</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2015</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180">
+        <v>1422125</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2015</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181">
+        <v>1636969</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2015</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182">
+        <v>1824393</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2015</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>1986138</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2015</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184">
+        <v>2176302</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2015</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>2177928</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2015</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186">
+        <v>2128883</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2015</v>
+      </c>
+      <c r="B187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187">
+        <v>1951394</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2015</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>1876969</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2015</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>447188</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2015</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>372542</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2015</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>510254</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2015</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>706743</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2015</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>961083</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2015</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>1163687</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2015</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>1418647</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2015</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <v>1547014</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2015</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>1604324</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2015</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>1756798</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2015</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199">
+        <v>1868706</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2015</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>1967102</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2015</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201">
+        <v>2113537</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2015</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202">
+        <v>2094847</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2015</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203">
+        <v>2038720</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2015</v>
+      </c>
+      <c r="B204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204">
+        <v>1866777</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2015</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205">
+        <v>1793917</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2016</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206">
+        <v>329533</v>
+      </c>
+      <c r="D206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2016</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>298087</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2016</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>432636</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2016</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>634813</v>
+      </c>
+      <c r="D209" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2016</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>854029</v>
+      </c>
+      <c r="D210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2016</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>1040752</v>
+      </c>
+      <c r="D211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2016</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>1302855</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2016</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>1390038</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2016</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214">
+        <v>1451309</v>
+      </c>
+      <c r="D214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2016</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215">
+        <v>1680931</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2016</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216">
+        <v>1862055</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2016</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>2034455</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2016</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218">
+        <v>2202431</v>
+      </c>
+      <c r="D218" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2016</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219">
+        <v>2183983</v>
+      </c>
+      <c r="D219" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2016</v>
+      </c>
+      <c r="B220" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220">
+        <v>2105555</v>
+      </c>
+      <c r="D220" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2016</v>
+      </c>
+      <c r="B221" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221">
+        <v>1925664</v>
+      </c>
+      <c r="D221" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2016</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222">
+        <v>1889028</v>
+      </c>
+      <c r="D222" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2016</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>469842</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2016</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>383181</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2016</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>531285</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2016</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>743956</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2016</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>995062</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2016</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>1205955</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2016</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229">
+        <v>1450979</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2016</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <v>1557532</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2016</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>1628202</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2016</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232">
+        <v>1786661</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2016</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233">
+        <v>1894254</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2016</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>2007732</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2016</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <v>2137756</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2016</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236">
+        <v>2100712</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2016</v>
+      </c>
+      <c r="B237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>2016474</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2016</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238">
+        <v>1842433</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2016</v>
+      </c>
+      <c r="B239" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239">
+        <v>1804878</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2017</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>346001</v>
+      </c>
+      <c r="D240" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2017</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>307149</v>
+      </c>
+      <c r="D241" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2017</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>455332</v>
+      </c>
+      <c r="D242" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2017</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>670739</v>
+      </c>
+      <c r="D243" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2017</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>875546</v>
+      </c>
+      <c r="D244" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2017</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245">
+        <v>1092910</v>
+      </c>
+      <c r="D245" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2017</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246">
+        <v>1329025</v>
+      </c>
+      <c r="D246" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2017</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247">
+        <v>1392080</v>
+      </c>
+      <c r="D247" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2017</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248">
+        <v>1495857</v>
+      </c>
+      <c r="D248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2017</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249">
+        <v>1726050</v>
+      </c>
+      <c r="D249" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2017</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250">
+        <v>1902495</v>
+      </c>
+      <c r="D250" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2017</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251">
+        <v>2091827</v>
+      </c>
+      <c r="D251" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2017</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252">
+        <v>2222756</v>
+      </c>
+      <c r="D252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2017</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>2192928</v>
+      </c>
+      <c r="D253" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2017</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254">
+        <v>2077882</v>
+      </c>
+      <c r="D254" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2017</v>
+      </c>
+      <c r="B255" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255">
+        <v>1910922</v>
+      </c>
+      <c r="D255" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2017</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256">
+        <v>1900582</v>
+      </c>
+      <c r="D256" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2017</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>492365</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2017</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>395696</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2017</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>556130</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2017</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>786736</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2017</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>1026816</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2017</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262">
+        <v>1256083</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2017</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>1480057</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2017</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264">
+        <v>1567442</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2017</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265">
+        <v>1662665</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2017</v>
+      </c>
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266">
+        <v>1817752</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2017</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267">
+        <v>1923009</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2017</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268">
+        <v>2058313</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2017</v>
+      </c>
+      <c r="B269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269">
+        <v>2156088</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2017</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270">
+        <v>2108323</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2017</v>
+      </c>
+      <c r="B271" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271">
+        <v>1989537</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2017</v>
+      </c>
+      <c r="B272" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272">
+        <v>1827870</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2017</v>
+      </c>
+      <c r="B273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273">
+        <v>1814175</v>
+      </c>
+      <c r="D273" t="s">
         <v>1</v>
       </c>
     </row>
